--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBE7F8C-FB9C-4A5B-BBA4-F2B4E9BA1BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{039792CB-D3D0-4CA1-9536-8AC7330F4963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065055.370" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065542.576" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="114">
   <si>
     <t>Do Ty</t>
   </si>
@@ -302,6 +302,54 @@
   </si>
   <si>
     <t>INK CLEANER</t>
+  </si>
+  <si>
+    <t>KEKAL INDOCOM</t>
+  </si>
+  <si>
+    <t>IP CAM HIKVISION2 MP OUTDOOR</t>
+  </si>
+  <si>
+    <t>PT. RIKSA MANDIRI SAFETY</t>
+  </si>
+  <si>
+    <t>76/INV/RMS/II/2024</t>
+  </si>
+  <si>
+    <t>BIAYA JASA PEMERIKSAAN DAN</t>
+  </si>
+  <si>
+    <t>PENGHAPUS</t>
+  </si>
+  <si>
+    <t>2187/2188/2195/2196/2194</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>26/12/23</t>
+  </si>
+  <si>
+    <t>2194/103/1102</t>
+  </si>
+  <si>
+    <t>sarung tangan mover</t>
+  </si>
+  <si>
+    <t>TINTA WARNA CMYK @1 LITER</t>
+  </si>
+  <si>
+    <t>IRWAN KARTAWIDJAJA</t>
+  </si>
+  <si>
+    <t>RJ45 CAT5</t>
+  </si>
+  <si>
+    <t>spidol hitam permanent</t>
+  </si>
+  <si>
+    <t>dispenser lakban 2inch</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1156,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ21"/>
+  <dimension ref="A1:AZ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3465,68 +3513,1655 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24002220</v>
+      </c>
+      <c r="D18">
+        <v>1204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45342</v>
+      </c>
       <c r="F18" t="s">
         <v>94</v>
       </c>
       <c r="G18">
-        <v>353.89</v>
+        <v>159.46</v>
       </c>
       <c r="H18">
-        <v>353.89</v>
+        <v>159.46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
       </c>
       <c r="L18" s="2">
-        <v>5531018</v>
+        <v>2520000</v>
       </c>
       <c r="N18" s="2">
-        <v>5531018</v>
+        <v>2520000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2104187</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
       </c>
       <c r="AG18">
-        <v>144</v>
+        <v>6</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18">
+        <v>55332029</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18">
+        <v>1204</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX18">
+        <v>24001110</v>
+      </c>
+      <c r="AY18">
+        <v>816130</v>
+      </c>
+      <c r="AZ18">
+        <v>1204.8161299999999</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>24002554</v>
+      </c>
+      <c r="D19">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45342</v>
+      </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19">
-        <v>353.89</v>
+        <v>727.71</v>
       </c>
       <c r="H19">
-        <v>353.89</v>
+        <v>727.71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
       </c>
       <c r="L19" s="2">
-        <v>5531018</v>
+        <v>11500000</v>
       </c>
       <c r="N19" s="2">
-        <v>5531018</v>
+        <v>11500000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19">
+        <v>2104383</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
       </c>
       <c r="AG19">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>57420268</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45328</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP19">
+        <v>1204</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX19">
+        <v>24001131</v>
+      </c>
+      <c r="AY19">
+        <v>816130</v>
+      </c>
+      <c r="AZ19">
+        <v>1204.8161299999999</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24002268</v>
+      </c>
+      <c r="D20">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45343</v>
+      </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G20">
-        <v>353.89</v>
+        <v>5.61</v>
       </c>
       <c r="H20">
-        <v>353.89</v>
+        <v>5.61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
       </c>
       <c r="L20" s="2">
-        <v>5531018</v>
+        <v>88500</v>
       </c>
       <c r="N20" s="2">
-        <v>5531018</v>
+        <v>88500</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2104470</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
       </c>
       <c r="AG20">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>57414183</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX20">
+        <v>24001108</v>
+      </c>
+      <c r="AY20">
+        <v>816130</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.8161299999999</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>24002589</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45343</v>
+      </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="G21">
+        <v>-1.74</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21">
+        <v>-1.74</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>86</v>
+      </c>
+      <c r="W21" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21">
+        <v>2104941</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>22</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>56165162</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45282</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX21">
+        <v>24001062</v>
+      </c>
+      <c r="AY21">
+        <v>816130</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>24002590</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>-1.65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>-1.65</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>86</v>
+      </c>
+      <c r="W22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22">
+        <v>2104985</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>57414183</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45286</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX22">
+        <v>23002197</v>
+      </c>
+      <c r="AY22">
+        <v>816130</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>24002591</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>-0.51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23">
+        <v>-0.51</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" t="s">
+        <v>87</v>
+      </c>
+      <c r="X23">
+        <v>2105011</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>57163396</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX23">
+        <v>24001032</v>
+      </c>
+      <c r="AY23">
+        <v>816130</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24002290</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24">
+        <v>5.95</v>
+      </c>
+      <c r="H24">
+        <v>5.95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>94000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>94000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2104803</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24">
+        <v>24</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>56165162</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX24">
+        <v>24001118</v>
+      </c>
+      <c r="AY24">
+        <v>816130</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24002293</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>26.68</v>
+      </c>
+      <c r="H25">
+        <v>26.68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>421600</v>
+      </c>
+      <c r="N25" s="2">
+        <v>421600</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2104803</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>57163396</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX25">
+        <v>24001102</v>
+      </c>
+      <c r="AY25">
+        <v>816130</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24002294</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26">
+        <v>10.44</v>
+      </c>
+      <c r="H26">
+        <v>10.44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>165000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>165000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2104828</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>57423531</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX26">
+        <v>24001109</v>
+      </c>
+      <c r="AY26">
+        <v>816130</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24002310</v>
+      </c>
+      <c r="D27">
+        <v>1204</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>4.37</v>
+      </c>
+      <c r="H27">
+        <v>4.37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <v>69000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>69000</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15803</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2105144</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>57414183</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27">
+        <v>1204</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX27">
+        <v>24001145</v>
+      </c>
+      <c r="AY27">
+        <v>816130</v>
+      </c>
+      <c r="AZ27">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24002311</v>
+      </c>
+      <c r="D28">
+        <v>1204</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28">
+        <v>3.32</v>
+      </c>
+      <c r="H28">
+        <v>3.32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2">
+        <v>52500</v>
+      </c>
+      <c r="N28" s="2">
+        <v>52500</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15803</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2105144</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>57414183</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28">
+        <v>1204</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX28">
+        <v>24001146</v>
+      </c>
+      <c r="AY28">
+        <v>816130</v>
+      </c>
+      <c r="AZ28">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24002313</v>
+      </c>
+      <c r="D29">
+        <v>1204</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>11.26</v>
+      </c>
+      <c r="H29">
+        <v>11.26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="2">
+        <v>178050</v>
+      </c>
+      <c r="N29" s="2">
+        <v>178050</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>15803</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2105144</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29">
+        <v>18</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29">
+        <v>56165162</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP29">
+        <v>1204</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX29">
+        <v>24001144</v>
+      </c>
+      <c r="AY29">
+        <v>816130</v>
+      </c>
+      <c r="AZ29">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1304.79</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1308.69</v>
+      </c>
+      <c r="K30">
+        <v>-3.9</v>
+      </c>
+      <c r="L30" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="N30" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="AG30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1304.79</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1304.79</v>
+      </c>
+      <c r="L31" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="N31" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="AG31">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1304.79</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1308.69</v>
+      </c>
+      <c r="K32">
+        <v>-3.9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="N32" s="2">
+        <v>20619668</v>
+      </c>
+      <c r="AG32">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.816130.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.816130.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039792CB-D3D0-4CA1-9536-8AC7330F4963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC24CC6E-62CA-4EBA-AA15-CE2CBFABCF84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065542.576" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T065952.439" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="131">
   <si>
     <t>Do Ty</t>
   </si>
@@ -350,6 +350,57 @@
   </si>
   <si>
     <t>dispenser lakban 2inch</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>UMUM &amp; KEBUTUHAN OFFICE</t>
+  </si>
+  <si>
+    <t>CV DARWATECH INTERNUSA</t>
+  </si>
+  <si>
+    <t>STICKER DOT LABEL WARNA MERAH</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>AMORTISASI HIGG 11/12</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>RPA2</t>
+  </si>
+  <si>
+    <t>FERI LEGIAN VEBRIANTO</t>
+  </si>
+  <si>
+    <t>CLOSING ADVANCE</t>
+  </si>
+  <si>
+    <t>ALFRIEDA</t>
+  </si>
+  <si>
+    <t>PEMBELIAN BAK SAMPAH MJL</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1204,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ33"/>
+  <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5094,74 +5145,696 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30">
+        <v>24001030</v>
+      </c>
+      <c r="D30">
+        <v>1204</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45350</v>
+      </c>
       <c r="F30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1304.79</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1308.69</v>
-      </c>
-      <c r="K30">
-        <v>-3.9</v>
+        <v>112</v>
+      </c>
+      <c r="G30">
+        <v>481.4</v>
+      </c>
+      <c r="H30">
+        <v>481.4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
       </c>
       <c r="L30" s="2">
-        <v>20619668</v>
+        <v>7607500</v>
       </c>
       <c r="N30" s="2">
-        <v>20619668</v>
-      </c>
-      <c r="AG30">
-        <v>234</v>
+        <v>7607500</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>15803</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W30" t="s">
+        <v>114</v>
+      </c>
+      <c r="X30">
+        <v>2106355</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP30">
+        <v>1204</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY30">
+        <v>816130</v>
+      </c>
+      <c r="AZ30">
+        <v>1204.8161299999999</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>24002404</v>
+      </c>
+      <c r="D31">
+        <v>1204</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45350</v>
+      </c>
       <c r="F31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1304.79</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1304.79</v>
+        <v>116</v>
+      </c>
+      <c r="G31">
+        <v>142.88</v>
+      </c>
+      <c r="H31">
+        <v>142.88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
       </c>
       <c r="L31" s="2">
-        <v>20619668</v>
+        <v>2257500</v>
       </c>
       <c r="N31" s="2">
-        <v>20619668</v>
+        <v>2257500</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31">
+        <v>15803</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31">
+        <v>2105882</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
       </c>
       <c r="AG31">
-        <v>234</v>
+        <v>43</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31">
+        <v>56306480</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP31">
+        <v>1204</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX31">
+        <v>24001117</v>
+      </c>
+      <c r="AY31">
+        <v>816130</v>
+      </c>
+      <c r="AZ31">
+        <v>1204.8161299999999</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <v>4687246</v>
+      </c>
+      <c r="D32">
+        <v>1201</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45351</v>
+      </c>
       <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32">
+        <v>59.36</v>
+      </c>
+      <c r="H32">
+        <v>59.36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>113</v>
+      </c>
+      <c r="W32" t="s">
+        <v>114</v>
+      </c>
+      <c r="X32">
+        <v>2105796</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP32">
+        <v>1204</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY32">
+        <v>816130</v>
+      </c>
+      <c r="AZ32">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33">
+        <v>24001034</v>
+      </c>
+      <c r="D33">
+        <v>1204</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F33" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="2">
-        <v>1304.79</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1308.69</v>
-      </c>
-      <c r="K32">
-        <v>-3.9</v>
-      </c>
-      <c r="L32" s="2">
-        <v>20619668</v>
-      </c>
-      <c r="N32" s="2">
-        <v>20619668</v>
-      </c>
-      <c r="AG32">
-        <v>234</v>
+      <c r="G33">
+        <v>207.63</v>
+      </c>
+      <c r="H33">
+        <v>207.63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3281100</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3281100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33">
+        <v>15803</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" t="s">
+        <v>114</v>
+      </c>
+      <c r="X33">
+        <v>2106428</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP33">
+        <v>1204</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY33">
+        <v>816130</v>
+      </c>
+      <c r="AZ33">
+        <v>1204.8161299999999</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>113</v>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <v>24002694</v>
+      </c>
+      <c r="D34">
+        <v>1204</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34">
+        <v>-12.09</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
+        <v>-12.09</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>15673</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>86</v>
+      </c>
+      <c r="W34" t="s">
+        <v>87</v>
+      </c>
+      <c r="X34">
+        <v>2107258</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34">
+        <v>57350255</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP34">
+        <v>1204</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX34">
+        <v>22001015</v>
+      </c>
+      <c r="AY34">
+        <v>816130</v>
+      </c>
+      <c r="AZ34">
+        <v>1204.8161299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2183.9699999999998</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2199.96</v>
+      </c>
+      <c r="K35">
+        <v>-15.99</v>
+      </c>
+      <c r="L35" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="N35" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="AG35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2183.9699999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2183.9699999999998</v>
+      </c>
+      <c r="L36" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="N36" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="AG36">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2183.9699999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2199.96</v>
+      </c>
+      <c r="K37">
+        <v>-15.99</v>
+      </c>
+      <c r="L37" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="N37" s="2">
+        <v>33765768</v>
+      </c>
+      <c r="AG37">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
